--- a/DesktopApp/data/lenlichdangbaitiktok.xlsx
+++ b/DesktopApp/data/lenlichdangbaitiktok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mci\automate-socials\DesktopApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320AFE49-0D37-4EBE-8C09-A001559D0608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5320FE-1546-48C1-ACCE-DF4B776ED132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
@@ -500,7 +500,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>

--- a/DesktopApp/data/lenlichdangbaitiktok.xlsx
+++ b/DesktopApp/data/lenlichdangbaitiktok.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mci\automate-socials\DesktopApp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MCI\DesktopApp\MCION-AutoS\DesktopApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320AFE49-0D37-4EBE-8C09-A001559D0608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0799D-4787-4064-8388-79998095B86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>video_path</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Saigon</t>
   </si>
   <si>
-    <t>C:\Users\MSI\Videos\Demo AI Agent.mp4</t>
-  </si>
-  <si>
     <t>profile</t>
+  </si>
+  <si>
+    <t>D:\Video\lyrics.py - PlayLyrics - Visual Studio Code 2025-06-16 00-54-44.mp4</t>
+  </si>
+  <si>
+    <t>D:\Video\6807044196471.mp4</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +454,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -462,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>20</v>
@@ -471,7 +474,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
@@ -480,10 +483,10 @@
         <v>2025</v>
       </c>
       <c r="I2" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -491,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>21</v>
@@ -500,7 +503,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>8</v>
@@ -509,7 +512,7 @@
         <v>2025</v>
       </c>
       <c r="I3" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
